--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1653,31 +1653,6 @@
   </si>
   <si>
     <t>.component.section</t>
-  </si>
-  <si>
-    <t>vaccination</t>
-  </si>
-  <si>
-    <t>Vaccination Status Section</t>
-  </si>
-  <si>
-    <t>Vaccination Status Section lists the relvant vaccinations received by the patient</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="11369-6"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation)
-</t>
   </si>
   <si>
     <t>testresult</t>
@@ -2022,7 +1997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN101"/>
+  <dimension ref="A1:AN87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10439,10 +10414,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>90</v>
@@ -12033,1614 +12008,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN101">
+  <autoFilter ref="A1:AN87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13650,7 +12019,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI100">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Describes the logical structure for a Digital Documentation of COVID-19 Certificates - Test Results
+    <t xml:space="preserve">Describes the logical structure for a Digital Documentation of COVID-19 Certificates - Test Result
 (DDCC:TR).  </t>
   </si>
   <si>
@@ -1658,10 +1658,10 @@
     <t>testresult</t>
   </si>
   <si>
-    <t>Vaccination Test Results Section</t>
-  </si>
-  <si>
-    <t>Vaccination Test Results Section lists the relvant test results received by the patient</t>
+    <t>Vaccination Test Result Section</t>
+  </si>
+  <si>
+    <t>Vaccination Test Result Section lists the relvant test results received by the patient</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="535">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -293,219 +293,223 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Composition.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Composition.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Composition.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Composition.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Composition.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Composition.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Composition.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t>Certificate Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Version-independent identifier for the Composition</t>
+  </si>
+  <si>
+    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
+  </si>
+  <si>
+    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Document.id / Document.setId</t>
+  </si>
+  <si>
+    <t>.setId</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Composition.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Composition.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Composition.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Composition.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Composition.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Composition.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Composition.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t>Certificate Identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Version-independent identifier for the Composition</t>
-  </si>
-  <si>
-    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
-  </si>
-  <si>
-    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Document.id / Document.setId</t>
-  </si>
-  <si>
-    <t>.setId</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Composition.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2006,44 +2010,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="20.4296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.84765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="59.37109375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="73.69140625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3337,13 +3341,13 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3394,7 +3398,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3412,7 +3416,7 @@
         <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
@@ -3426,7 +3430,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3455,7 +3459,7 @@
         <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>138</v>
@@ -3496,19 +3500,19 @@
         <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3526,7 +3530,7 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3540,7 +3544,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3566,16 +3570,16 @@
         <v>109</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3600,13 +3604,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3624,7 +3628,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3642,7 +3646,7 @@
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -3656,7 +3660,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3679,19 +3683,19 @@
         <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3716,13 +3720,13 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3740,7 +3744,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3758,7 +3762,7 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3772,7 +3776,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3798,16 +3802,16 @@
         <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3820,7 +3824,7 @@
         <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>77</v>
@@ -3856,7 +3860,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3874,7 +3878,7 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3888,7 +3892,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3911,16 +3915,16 @@
         <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3934,7 +3938,7 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>77</v>
@@ -3970,7 +3974,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3988,7 +3992,7 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -4002,7 +4006,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4025,13 +4029,13 @@
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4082,7 +4086,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4100,7 +4104,7 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4114,7 +4118,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4137,16 +4141,16 @@
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4196,7 +4200,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4214,7 +4218,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4228,7 +4232,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4254,16 +4258,16 @@
         <v>109</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4288,13 +4292,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4312,7 +4316,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>89</v>
@@ -4327,24 +4331,24 @@
         <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4367,19 +4371,19 @@
         <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4389,7 +4393,7 @@
         <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -4407,10 +4411,10 @@
         <v>113</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
@@ -4428,7 +4432,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>89</v>
@@ -4443,24 +4447,24 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4483,19 +4487,19 @@
         <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4505,7 +4509,7 @@
         <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>77</v>
@@ -4520,13 +4524,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4544,7 +4548,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4559,24 +4563,24 @@
         <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4599,19 +4603,19 @@
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4660,7 +4664,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4678,21 +4682,21 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4715,13 +4719,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4772,7 +4776,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4790,7 +4794,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4804,7 +4808,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4833,7 +4837,7 @@
         <v>136</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>138</v>
@@ -4874,19 +4878,19 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4904,7 +4908,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4918,7 +4922,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4941,16 +4945,16 @@
         <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5000,7 +5004,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5009,7 +5013,7 @@
         <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>101</v>
@@ -5032,7 +5036,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5058,13 +5062,13 @@
         <v>103</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5090,13 +5094,13 @@
         <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>77</v>
@@ -5114,7 +5118,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5146,7 +5150,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5172,13 +5176,13 @@
         <v>148</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5228,7 +5232,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5246,7 +5250,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5260,7 +5264,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5283,16 +5287,16 @@
         <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5342,7 +5346,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5374,7 +5378,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5397,17 +5401,17 @@
         <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5456,7 +5460,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5471,24 +5475,24 @@
         <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5511,19 +5515,19 @@
         <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5572,7 +5576,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>89</v>
@@ -5587,24 +5591,24 @@
         <v>101</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5627,17 +5631,17 @@
         <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5686,7 +5690,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>89</v>
@@ -5701,24 +5705,24 @@
         <v>101</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5741,16 +5745,16 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5761,7 +5765,7 @@
         <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5800,7 +5804,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>89</v>
@@ -5818,13 +5822,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5832,7 +5836,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5858,13 +5862,13 @@
         <v>109</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5890,13 +5894,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5914,7 +5918,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5932,13 +5936,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5946,7 +5950,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5969,19 +5973,19 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -6030,7 +6034,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6048,13 +6052,13 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6062,7 +6066,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6085,13 +6089,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6142,7 +6146,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6160,7 +6164,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6174,7 +6178,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6203,7 +6207,7 @@
         <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>138</v>
@@ -6256,7 +6260,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6274,7 +6278,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6288,11 +6292,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6314,10 +6318,10 @@
         <v>135</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>138</v>
@@ -6372,7 +6376,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6404,7 +6408,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6430,14 +6434,14 @@
         <v>109</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6447,7 +6451,7 @@
         <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
@@ -6462,13 +6466,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6486,7 +6490,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>89</v>
@@ -6504,10 +6508,10 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6518,7 +6522,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6541,17 +6545,17 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6600,7 +6604,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6618,10 +6622,10 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6632,14 +6636,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E41" t="s" s="2">
         <v>89</v>
@@ -6657,17 +6661,17 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6716,7 +6720,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6734,21 +6738,21 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6771,19 +6775,19 @@
         <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6832,7 +6836,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6850,13 +6854,13 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6864,7 +6868,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6887,16 +6891,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6946,7 +6950,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6964,13 +6968,13 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6978,7 +6982,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7001,13 +7005,13 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7058,7 +7062,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7076,7 +7080,7 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7090,7 +7094,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7119,7 +7123,7 @@
         <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>138</v>
@@ -7172,7 +7176,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7190,7 +7194,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7204,11 +7208,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7230,10 +7234,10 @@
         <v>135</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>138</v>
@@ -7288,7 +7292,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7320,7 +7324,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7346,13 +7350,13 @@
         <v>109</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7378,13 +7382,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7402,7 +7406,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>89</v>
@@ -7420,13 +7424,13 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7434,7 +7438,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7457,13 +7461,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7514,7 +7518,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>89</v>
@@ -7532,13 +7536,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7546,7 +7550,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7569,19 +7573,19 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7630,7 +7634,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7648,13 +7652,13 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7662,7 +7666,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7685,13 +7689,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7742,7 +7746,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7760,7 +7764,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7774,7 +7778,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7803,7 +7807,7 @@
         <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>138</v>
@@ -7856,7 +7860,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7874,7 +7878,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7888,11 +7892,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7914,10 +7918,10 @@
         <v>135</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>138</v>
@@ -7972,7 +7976,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8004,7 +8008,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8027,16 +8031,16 @@
         <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8062,13 +8066,13 @@
         <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>77</v>
@@ -8086,7 +8090,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8104,13 +8108,13 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8118,7 +8122,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8141,13 +8145,13 @@
         <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8198,7 +8202,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8216,13 +8220,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8230,7 +8234,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8253,13 +8257,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8310,7 +8314,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8328,7 +8332,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8342,7 +8346,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8371,7 +8375,7 @@
         <v>136</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>138</v>
@@ -8412,19 +8416,19 @@
         <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8442,7 +8446,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8456,14 +8460,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E57" t="s" s="2">
         <v>78</v>
@@ -8481,16 +8485,16 @@
         <v>90</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8540,7 +8544,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8549,7 +8553,7 @@
         <v>89</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>101</v>
@@ -8558,7 +8562,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8572,14 +8576,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E58" t="s" s="2">
         <v>78</v>
@@ -8597,23 +8601,23 @@
         <v>90</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>77</v>
@@ -8658,7 +8662,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8667,7 +8671,7 @@
         <v>89</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>101</v>
@@ -8676,7 +8680,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8690,7 +8694,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8713,13 +8717,13 @@
         <v>90</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8770,7 +8774,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8788,10 +8792,10 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8802,7 +8806,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8825,13 +8829,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8870,17 +8874,17 @@
         <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8892,16 +8896,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8912,7 +8916,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8935,13 +8939,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8992,7 +8996,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9010,7 +9014,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9024,7 +9028,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9053,7 +9057,7 @@
         <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>138</v>
@@ -9106,7 +9110,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9124,7 +9128,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9138,11 +9142,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9164,10 +9168,10 @@
         <v>135</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>138</v>
@@ -9222,7 +9226,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9254,11 +9258,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9277,19 +9281,19 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9338,7 +9342,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9356,10 +9360,10 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9370,7 +9374,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9393,19 +9397,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9430,13 +9434,13 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9454,7 +9458,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9472,10 +9476,10 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9486,7 +9490,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9509,17 +9513,17 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9568,7 +9572,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9586,21 +9590,21 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9623,16 +9627,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9682,7 +9686,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9703,7 +9707,7 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9714,7 +9718,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9740,13 +9744,13 @@
         <v>119</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9796,7 +9800,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9805,7 +9809,7 @@
         <v>89</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>101</v>
@@ -9814,10 +9818,10 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9828,7 +9832,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9854,16 +9858,16 @@
         <v>109</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9888,13 +9892,13 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9912,7 +9916,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9930,21 +9934,21 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9967,19 +9971,19 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10007,10 +10011,10 @@
         <v>113</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -10028,7 +10032,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10046,10 +10050,10 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -10060,7 +10064,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10083,16 +10087,16 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10142,7 +10146,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10151,7 +10155,7 @@
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>101</v>
@@ -10160,10 +10164,10 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10174,7 +10178,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10197,19 +10201,19 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10237,10 +10241,10 @@
         <v>113</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>77</v>
@@ -10258,7 +10262,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10267,7 +10271,7 @@
         <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>101</v>
@@ -10276,10 +10280,10 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10290,7 +10294,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10316,13 +10320,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10372,7 +10376,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10381,7 +10385,7 @@
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>101</v>
@@ -10390,10 +10394,10 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10404,10 +10408,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>77</v>
@@ -10429,13 +10433,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10486,7 +10490,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10498,16 +10502,16 @@
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10518,7 +10522,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10541,13 +10545,13 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10598,7 +10602,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10616,7 +10620,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10630,7 +10634,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10659,7 +10663,7 @@
         <v>136</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>138</v>
@@ -10712,7 +10716,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10730,7 +10734,7 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10744,11 +10748,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10770,10 +10774,10 @@
         <v>135</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>138</v>
@@ -10828,7 +10832,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10860,11 +10864,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10883,19 +10887,19 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -10944,7 +10948,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10962,10 +10966,10 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10976,7 +10980,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10999,19 +11003,19 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11021,7 +11025,7 @@
         <v>77</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -11036,13 +11040,13 @@
         <v>77</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
@@ -11060,7 +11064,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11078,10 +11082,10 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11092,7 +11096,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11115,17 +11119,17 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11174,7 +11178,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11192,21 +11196,21 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11229,16 +11233,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11288,7 +11292,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11309,7 +11313,7 @@
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>
@@ -11320,7 +11324,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11346,13 +11350,13 @@
         <v>119</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11402,7 +11406,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11411,7 +11415,7 @@
         <v>89</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>101</v>
@@ -11420,10 +11424,10 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11434,7 +11438,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11460,16 +11464,16 @@
         <v>109</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -11494,13 +11498,13 @@
         <v>77</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>77</v>
@@ -11518,7 +11522,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11536,21 +11540,21 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11573,19 +11577,19 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11613,10 +11617,10 @@
         <v>113</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -11634,7 +11638,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11652,10 +11656,10 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>77</v>
@@ -11666,7 +11670,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11689,16 +11693,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11748,7 +11752,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11757,7 +11761,7 @@
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>101</v>
@@ -11766,10 +11770,10 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>77</v>
@@ -11780,7 +11784,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11803,19 +11807,19 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11843,10 +11847,10 @@
         <v>113</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -11864,7 +11868,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11873,7 +11877,7 @@
         <v>89</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>101</v>
@@ -11882,10 +11886,10 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -11896,7 +11900,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11922,13 +11926,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11978,7 +11982,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -11987,7 +11991,7 @@
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>101</v>
@@ -11996,10 +12000,10 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,10 +266,6 @@
   </si>
   <si>
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2270,19 +2266,19 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>77</v>
@@ -2290,7 +2286,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2301,28 +2297,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2372,13 +2368,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -2404,7 +2400,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2415,25 +2411,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2484,19 +2480,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -2516,7 +2512,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2527,28 +2523,28 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2598,19 +2594,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2630,7 +2626,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2641,7 +2637,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2653,16 +2649,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2688,43 +2684,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2744,18 +2740,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2767,16 +2763,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2826,25 +2822,25 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2858,11 +2854,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2881,16 +2877,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2940,7 +2936,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
@@ -2958,7 +2954,7 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2972,11 +2968,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2995,16 +2991,16 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3054,7 +3050,7 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
@@ -3066,13 +3062,13 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -3086,11 +3082,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3103,25 +3099,25 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -3170,7 +3166,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3182,13 +3178,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -3202,41 +3198,41 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="E11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3286,39 +3282,39 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3329,7 +3325,7 @@
         <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3341,13 +3337,13 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3398,25 +3394,25 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
@@ -3430,11 +3426,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3453,16 +3449,16 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3500,19 +3496,19 @@
         <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
+      <c r="AE13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3524,13 +3520,13 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3544,7 +3540,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3555,31 +3551,31 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3604,49 +3600,49 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -3660,7 +3656,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3671,31 +3667,31 @@
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3720,49 +3716,49 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3776,7 +3772,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3784,34 +3780,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="H16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3824,61 +3820,61 @@
         <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3892,7 +3888,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3900,31 +3896,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="H17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3938,61 +3934,61 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -4006,7 +4002,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4017,25 +4013,25 @@
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4086,25 +4082,25 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4118,7 +4114,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4129,28 +4125,28 @@
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4200,25 +4196,25 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4232,7 +4228,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4240,34 +4236,34 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="H20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4292,63 +4288,63 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4356,34 +4352,34 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4393,78 +4389,78 @@
         <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4484,22 +4480,22 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4509,29 +4505,29 @@
         <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="S22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W22" t="s" s="2">
+      <c r="X22" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4548,7 +4544,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4560,27 +4556,27 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4588,34 +4584,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="H23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4664,39 +4660,39 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4707,7 +4703,7 @@
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4719,13 +4715,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4776,25 +4772,25 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4808,11 +4804,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4831,16 +4827,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4878,19 +4874,19 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AB25" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AB25" t="s" s="2">
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
+      <c r="AE25" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4902,13 +4898,13 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4922,7 +4918,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4930,31 +4926,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="H26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5004,25 +5000,25 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5036,7 +5032,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5047,28 +5043,28 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5094,49 +5090,49 @@
         <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5150,7 +5146,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5161,28 +5157,28 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5232,25 +5228,25 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5264,7 +5260,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5275,28 +5271,28 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5346,25 +5342,25 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5378,7 +5374,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5389,29 +5385,29 @@
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5460,39 +5456,39 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5500,34 +5496,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5576,39 +5572,39 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5616,7 +5612,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>79</v>
@@ -5628,20 +5624,20 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5690,10 +5686,10 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5702,27 +5698,27 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5730,31 +5726,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="H33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5765,70 +5761,70 @@
         <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="S33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5836,7 +5832,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5847,28 +5843,28 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5894,55 +5890,55 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5950,7 +5946,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5958,14 +5954,14 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5973,19 +5969,19 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -6034,7 +6030,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6046,19 +6042,19 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6066,7 +6062,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6077,7 +6073,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6089,13 +6085,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6146,25 +6142,25 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6178,11 +6174,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6201,16 +6197,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L37" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6260,7 +6256,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6272,13 +6268,13 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6292,11 +6288,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6309,25 +6305,25 @@
         <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6376,7 +6372,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6388,13 +6384,13 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6408,7 +6404,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6416,10 +6412,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6431,17 +6427,17 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6451,67 +6447,67 @@
         <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="S39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X39" t="s" s="2">
+      <c r="Y39" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6522,7 +6518,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6533,7 +6529,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6545,17 +6541,17 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6604,28 +6600,28 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6636,42 +6632,42 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="E41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J41" t="s" s="2">
+      <c r="K41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6720,39 +6716,39 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6763,31 +6759,31 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6836,31 +6832,31 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6868,7 +6864,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6891,16 +6887,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6950,7 +6946,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6962,19 +6958,19 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6982,7 +6978,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6993,7 +6989,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -7005,13 +7001,13 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7062,25 +7058,25 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7094,11 +7090,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7117,16 +7113,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L45" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7176,7 +7172,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7188,13 +7184,13 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7208,11 +7204,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7225,25 +7221,25 @@
         <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7292,7 +7288,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7304,13 +7300,13 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7324,7 +7320,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7332,10 +7328,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7347,16 +7343,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7382,55 +7378,55 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7438,7 +7434,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7446,10 +7442,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7461,13 +7457,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7518,31 +7514,31 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7550,7 +7546,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7561,31 +7557,31 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7634,7 +7630,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7646,19 +7642,19 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7666,7 +7662,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7677,7 +7673,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7689,13 +7685,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7746,25 +7742,25 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7778,11 +7774,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7801,16 +7797,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L51" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7860,7 +7856,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7872,13 +7868,13 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7892,11 +7888,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7909,25 +7905,25 @@
         <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7976,7 +7972,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7988,13 +7984,13 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8008,7 +8004,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8028,19 +8024,19 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8066,14 +8062,14 @@
         <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8090,7 +8086,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8102,19 +8098,19 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8122,7 +8118,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8133,25 +8129,25 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8202,31 +8198,31 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8234,7 +8230,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8245,7 +8241,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8257,13 +8253,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8314,25 +8310,25 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8346,11 +8342,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8369,16 +8365,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K56" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L56" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8416,19 +8412,19 @@
         <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AB56" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AB56" t="s" s="2">
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
+      <c r="AE56" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8440,13 +8436,13 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8460,41 +8456,41 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="E57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8544,25 +8540,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH57" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH57" t="s" s="2">
+      <c r="AI57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8576,111 +8572,111 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="E58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P58" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Q58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8694,7 +8690,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8714,16 +8710,16 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8774,7 +8770,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8786,16 +8782,16 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8806,7 +8802,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8814,7 +8810,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>79</v>
@@ -8829,13 +8825,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8874,17 +8870,17 @@
         <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8896,16 +8892,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8916,7 +8912,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8927,7 +8923,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8939,13 +8935,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8996,25 +8992,25 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9028,11 +9024,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9051,16 +9047,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K62" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L62" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9110,7 +9106,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9122,13 +9118,13 @@
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9142,11 +9138,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9159,25 +9155,25 @@
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9226,7 +9222,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9238,13 +9234,13 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9258,18 +9254,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9281,19 +9277,19 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9342,28 +9338,28 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9374,7 +9370,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9385,7 +9381,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9397,19 +9393,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9434,14 +9430,14 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9458,28 +9454,28 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9490,7 +9486,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9513,17 +9509,17 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9572,7 +9568,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9584,27 +9580,27 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9615,7 +9611,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9627,16 +9623,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9686,19 +9682,19 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
@@ -9707,7 +9703,7 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9718,7 +9714,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9729,7 +9725,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9741,16 +9737,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9800,28 +9796,28 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AI68" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="AL68" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9832,7 +9828,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9843,7 +9839,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9855,19 +9851,19 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9892,63 +9888,63 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>500</v>
-      </c>
       <c r="AL69" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9959,7 +9955,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9971,19 +9967,19 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10008,52 +10004,52 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="AL70" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -10064,7 +10060,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10087,16 +10083,16 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10146,7 +10142,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10155,19 +10151,19 @@
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AI71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10178,7 +10174,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10189,7 +10185,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -10201,19 +10197,19 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10238,52 +10234,52 @@
         <v>77</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="AL72" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10294,7 +10290,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10320,13 +10316,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10376,7 +10372,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10385,19 +10381,19 @@
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10408,24 +10404,24 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10433,13 +10429,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10490,7 +10486,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10502,16 +10498,16 @@
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10522,7 +10518,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10533,7 +10529,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10545,13 +10541,13 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10602,25 +10598,25 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10634,11 +10630,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10657,16 +10653,16 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K76" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L76" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10716,7 +10712,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10728,13 +10724,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10748,11 +10744,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10765,25 +10761,25 @@
         <v>77</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="M77" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10832,7 +10828,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10844,13 +10840,13 @@
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10864,18 +10860,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -10887,19 +10883,19 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -10948,28 +10944,28 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10980,7 +10976,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10988,10 +10984,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>77</v>
@@ -11003,19 +10999,19 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11025,7 +11021,7 @@
         <v>77</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -11040,14 +11036,14 @@
         <v>77</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
       </c>
@@ -11064,28 +11060,28 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11096,7 +11092,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11119,17 +11115,17 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11178,7 +11174,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11190,27 +11186,27 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11218,14 +11214,14 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11233,16 +11229,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11292,19 +11288,19 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
@@ -11313,7 +11309,7 @@
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>
@@ -11324,7 +11320,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11335,7 +11331,7 @@
         <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
@@ -11347,16 +11343,16 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11406,28 +11402,28 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AI82" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="AL82" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11438,7 +11434,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11449,7 +11445,7 @@
         <v>78</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>77</v>
@@ -11461,19 +11457,19 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -11498,63 +11494,63 @@
         <v>77</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="Y83" t="s" s="2">
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>500</v>
-      </c>
       <c r="AL83" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11565,7 +11561,7 @@
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11577,19 +11573,19 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11614,52 +11610,52 @@
         <v>77</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Y84" t="s" s="2">
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="Z84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="AL84" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>77</v>
@@ -11670,7 +11666,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11693,16 +11689,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11752,7 +11748,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11761,19 +11757,19 @@
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AI85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AL85" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>77</v>
@@ -11784,7 +11780,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11795,7 +11791,7 @@
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>77</v>
@@ -11807,19 +11803,19 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11844,52 +11840,52 @@
         <v>77</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="Y86" t="s" s="2">
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Z86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="AL86" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -11900,7 +11896,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11926,13 +11922,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11982,7 +11978,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -11991,19 +11987,19 @@
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Describes the logical structure for a Digital Documentation of COVID-19 Certificates - Test Result
-(DDCC:TR).  </t>
+    <t>Describes the logical structure for a Digital Documentation of COVID-19 Certificates - Test Result (DDCC:TR).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCTRComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
